--- a/reports/Temas.xlsx
+++ b/reports/Temas.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Git\indiceENSANUT\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Componente Salud" sheetId="1" r:id="rId1"/>
+    <sheet name="Componente Nutrición" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Componente</t>
-  </si>
-  <si>
-    <t>Salud</t>
-  </si>
-  <si>
-    <t>Nutrición</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="174">
   <si>
     <t>Tema</t>
   </si>
@@ -51,14 +48,516 @@
     <t>Variables</t>
   </si>
   <si>
-    <t>En los últimos 3 meses, por falta de dinero u otros recursos, alguna vez ¿Usted sepreocupó de que los alimentos se acabaran en su hogar?</t>
+    <t>Adultos de 20 años o más</t>
+  </si>
+  <si>
+    <t>Sobrepeso y Obesidad</t>
+  </si>
+  <si>
+    <t>Depresión</t>
+  </si>
+  <si>
+    <t>I.Sobrepeso y obesidad</t>
+  </si>
+  <si>
+    <t>II.Depresión</t>
+  </si>
+  <si>
+    <t>Sentimientos o conductas experimentados en la semana de la entrevista y atención médica (diagnóstico y tratamientos).</t>
+  </si>
+  <si>
+    <t>Siluetas de Stunkard.</t>
+  </si>
+  <si>
+    <t>Cuestionario Invididual: Adultos</t>
+  </si>
+  <si>
+    <t>Diabetes Mellitus</t>
+  </si>
+  <si>
+    <t>III.Diabetes Mellitus</t>
+  </si>
+  <si>
+    <t>Diagnóstico, que tratamientos utiliza y su frecuencia. Medidas preventivas utilizadas asi como consultas al médico, exámenes, pruebas y la insitución donde las realiza. Complicaciones presentadas por la diabetes.</t>
+  </si>
+  <si>
+    <t>Hipertensión Arterial</t>
+  </si>
+  <si>
+    <t>IV.Hipertensión Arterial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnóstico, que tratamientos utiliza, en que institución se atiende, cuantas veces le tomaron la presión en los últimos 12 meses. </t>
+  </si>
+  <si>
+    <t>Enfermedad Cardiovascular</t>
+  </si>
+  <si>
+    <t>V.Enfermedad Cardiovascular</t>
+  </si>
+  <si>
+    <t>Si se han presentado síntomas y diagnóstico de médico.</t>
+  </si>
+  <si>
+    <t>VI.Hipercolesterolemia y enfermedad neurovascular</t>
+  </si>
+  <si>
+    <t>Si se han medido el colesterol,triglicéridos.Tratamientos y si se le ha comentado al médico en caso de haber tenido embolia o infarto cerebral.</t>
+  </si>
+  <si>
+    <t>Hipercolesterolemia y enfermedad neurovascular</t>
+  </si>
+  <si>
+    <t>Antecedentes heredo familiares</t>
+  </si>
+  <si>
+    <t>VII.Antencedentes heredo familiares</t>
+  </si>
+  <si>
+    <t>Enfermedades que pudieran haber tenido los padres.</t>
+  </si>
+  <si>
+    <t>Salud Reproductiva</t>
+  </si>
+  <si>
+    <t>Hombres y mujeres de 20 a 49 años</t>
+  </si>
+  <si>
+    <t>VIII.Salud Reproductiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edad de la primera relación sexual con el método para evitar embarazo y enfermedades de transmisión sexual. En la última relación sexual método para evitar el embarazo y enfermedades de transmisión sexual. Diagnóstico y tratamiento de enferemdades de transmisión sexual. Específico mujeres: embarazos previos y actuales, cuestiones del último parto. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIIIA.Nacidos vivos en los últimos 5 años y que murieron. </t>
+  </si>
+  <si>
+    <t>Nombre, edad, peso y cuantos meses amamantó.</t>
+  </si>
+  <si>
+    <t>Vacunación</t>
+  </si>
+  <si>
+    <t>Hombres y mujeres de 20 a 59 años</t>
+  </si>
+  <si>
+    <t>IX.Vacunación</t>
+  </si>
+  <si>
+    <t>Vacunas que se han aplicado a partir de los 20 años, considerando las vacunas que aplicaron en la unidad médica, con el médico privado, durante campañas de vacunación o en casa. Preguntas de vacunas específicas para adultos de más de 65 años.</t>
+  </si>
+  <si>
+    <t>X.Programas preventivos</t>
+  </si>
+  <si>
+    <t>Programas Preventivos</t>
+  </si>
+  <si>
+    <t>Si se ha realizado pruebas de detección, que pruebas se ha realizado, el tratamiento recibido, la institución donde se realizó.</t>
+  </si>
+  <si>
+    <t>XI.Accidentes</t>
+  </si>
+  <si>
+    <t>Accidentes</t>
+  </si>
+  <si>
+    <t>XII.Agresión y violencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agresión y Violencia </t>
+  </si>
+  <si>
+    <t>Si sufrió algún daño a la salud, qué pasó, el motivo, el lugar,quién lo atendió y si ocasionó algún daño permanente.</t>
+  </si>
+  <si>
+    <t>Factores de Riesgo</t>
+  </si>
+  <si>
+    <t>XIII.Factores de Riesgo</t>
+  </si>
+  <si>
+    <t>Si es fumador activo o lo ha sido y el consumo de alcohol.</t>
+  </si>
+  <si>
+    <t>Datos generales del entrevistado</t>
+  </si>
+  <si>
+    <t>Identificación geográfica, dirección, datos y resultado de la entrevista.</t>
+  </si>
+  <si>
+    <t>Dificultades de la memoria, mini-COG, fluencia verbal, pruebas cognoscitivas (reloj).</t>
+  </si>
+  <si>
+    <t>Adultos de 60 años en adelante</t>
+  </si>
+  <si>
+    <t>Respecto a la audición (alcance).</t>
+  </si>
+  <si>
+    <t>Si usan lentes y como ven con ellos.</t>
+  </si>
+  <si>
+    <t>Preguntas de opinión en relación a la vida en general y sobre su vida actual.</t>
+  </si>
+  <si>
+    <t>Estado General del entrevistado</t>
+  </si>
+  <si>
+    <t>XIV</t>
+  </si>
+  <si>
+    <t>XIV.A Estado Cognoscitivo</t>
+  </si>
+  <si>
+    <t>XIV.B Audición</t>
+  </si>
+  <si>
+    <t>XIV.G Visión</t>
+  </si>
+  <si>
+    <t>XIV.C  Autoestima y Satisfacción</t>
+  </si>
+  <si>
+    <t>XIV.E Funcionalidad</t>
+  </si>
+  <si>
+    <t>Dificultades que debido a un problema de salud algunas personas tienen
+para realizar ciertas actividades importantes para la vida diaria.</t>
+  </si>
+  <si>
+    <t>XIV.F Caídas</t>
+  </si>
+  <si>
+    <t>Si se han caído en los últimos 12 meses y su atención médica.</t>
+  </si>
+  <si>
+    <t>Cuestionario Invididual: Adolescentes</t>
+  </si>
+  <si>
+    <t>Adolescente de 10 a 19 años de edad</t>
+  </si>
+  <si>
+    <t>I. Factores de Riesgo</t>
+  </si>
+  <si>
+    <t>Infecciones de transmisión sexual y salud reproductiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolescentes de 12 a 19 años de edad </t>
+  </si>
+  <si>
+    <t>II.Infecciones de transmisión sexual y salud reproductiva</t>
+  </si>
+  <si>
+    <t>Conocimiento de métodos anticonceptivos, embarazos y su atención y si se han realizado prueblas de enfermedades de transmisión sexual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II A.Nacidos vivos en los últimos 5 años y que murieron. </t>
+  </si>
+  <si>
+    <t>III. Vacunación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacunas que se han aplicado considerando las vacunas que aplicaron en la unidad médica, con el médico privado, durante campañas de vacunación o en casa. </t>
+  </si>
+  <si>
+    <t>Transtornos de la conducta alimentaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolescentes de 10 a 19 años de edad </t>
+  </si>
+  <si>
+    <t>IV. Transtornos de la conducta alimentaria</t>
+  </si>
+  <si>
+    <t>Algunos problemas de la alimentación en los
+últimos tres meses (anorexia y bulimia).</t>
+  </si>
+  <si>
+    <t>V.Accidentes</t>
+  </si>
+  <si>
+    <t>Si sufrió un accidente, como es que se accidentó, el lugar y si llevaba cinturón o casco. La región del cuerpo donde se accidentó y el tipo de daño. Quién lo antendió y si ocasionó algún daño permanente.</t>
+  </si>
+  <si>
+    <t>Agresión y Violencia</t>
+  </si>
+  <si>
+    <t>VI.Agresión y Violencia</t>
+  </si>
+  <si>
+    <t>Lesiones Auto-Infligidas</t>
+  </si>
+  <si>
+    <t>VII.Lesiones Auto-Infligidas</t>
+  </si>
+  <si>
+    <t>Si te has hecho daño con el fin de quitarte la
+vida y como lo hiciste.</t>
+  </si>
+  <si>
+    <t>Enfermedades Crónicas</t>
+  </si>
+  <si>
+    <t>VIII.Enfermedades Crónicas</t>
+  </si>
+  <si>
+    <t>Diagnóstico de diabetes,presión alta o hipertensión. Los tratamientos utilizados.</t>
+  </si>
+  <si>
+    <t>Cuestionario Individual: menores</t>
+  </si>
+  <si>
+    <t>I.Vacunación</t>
+  </si>
+  <si>
+    <t>Enfermedad Diarreica</t>
+  </si>
+  <si>
+    <t>II.Enfermedad diarreica</t>
+  </si>
+  <si>
+    <t>Infecciones respiratorias agudas</t>
+  </si>
+  <si>
+    <t>III.Infecciones respiratorias agudas</t>
+  </si>
+  <si>
+    <t>Discapacidad</t>
+  </si>
+  <si>
+    <t>IV.Accidentes</t>
+  </si>
+  <si>
+    <t>V.Discapacidad</t>
+  </si>
+  <si>
+    <t>Padre, madre o tutor.</t>
+  </si>
+  <si>
+    <t>Dónde nació, que vacunas se le aplicaron al nacer y si se le entregó cartilla de vacunación. Vacunas aplicadas y número de veces. Transcribir la cartilla de vacunación y donde fueron aplicadas.</t>
+  </si>
+  <si>
+    <t>Ha tenido gripa, catarro, anginas, tos, bronquitis o dolor
+de oídos en las últimas dos semanas y si se dio el caso de tener fiebre. Tratamientos y cuidados al niño durante la enfermedad. Si ha tenido neumonía.</t>
+  </si>
+  <si>
+    <t>Si ha tenido diarrea, cuantos días y que se hizo en el momento.  Tratamientos y cuidados al niño mientras estuvo enfermo.</t>
+  </si>
+  <si>
+    <t>Dificultades motrices, auditivas, para ver, para aprender y hablar.</t>
+  </si>
+  <si>
+    <t>Cuestionario de Hogar</t>
+  </si>
+  <si>
+    <t>Datos Generales</t>
+  </si>
+  <si>
+    <t>Identificación de Hogares</t>
+  </si>
+  <si>
+    <t>I.Identificación de Hogares</t>
+  </si>
+  <si>
+    <t>II.Características sociodemográficas</t>
+  </si>
+  <si>
+    <t>Características Sociodemográficas</t>
+  </si>
+  <si>
+    <t>Situación de Salud  y utilización  de servicios de Salud</t>
+  </si>
+  <si>
+    <t>III.Situación de Salud  y utilización  de servicios de Salud</t>
+  </si>
+  <si>
+    <t>Transferencias Institucionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IV. Transferencias Institucionales </t>
+  </si>
+  <si>
+    <t>Características de la vivienda</t>
+  </si>
+  <si>
+    <t>V.Características de la vivienda</t>
+  </si>
+  <si>
+    <t>Bienes del Hogar</t>
+  </si>
+  <si>
+    <t>VI. Bienes del Hogar</t>
+  </si>
+  <si>
+    <t>Gastos del Hogar</t>
+  </si>
+  <si>
+    <t>VII. Gastos del Hogar</t>
+  </si>
+  <si>
+    <t>Cuánto se gasta en el hogar en alimentos, bienes y servicios.</t>
+  </si>
+  <si>
+    <t>Difusión, aceptación y utilización del seguro popular</t>
+  </si>
+  <si>
+    <t>VIII. Difusión, aceptación y utilización del seguro popular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de personas que viven en la vivienda, gasto común y  número de hogares en la vivienda. </t>
+  </si>
+  <si>
+    <t>Lista de personas con edad, sexo y fecha de nacimiento. Identificación de los padres,uso de servicios de salud, derechohabiencia a servicios de salud, motivo de afiliación y la dependencia. Habla de lenguas indígenas y español, asistencia escolar y el grado de escolaridad. Situación conyugal así como laboral (posición laboral, prestaciones, horas trabajadas e ingresos)</t>
+  </si>
+  <si>
+    <t>Problemas de salud, la atención al problema junto con sus medicamentos y gastos.  Si no lo atendieron en alguna atención, el motivo y la institución. Discapacidades y causa de la discapacidad.  Si utilizan servicios de salud ambulatorios, si tienen enfermedades crónicas, si han donado sangre y el motivo. Número de hospitalizaciones en el último año, elmotivo, la institución donde se internó, si entró al seguro y el número de hospitalizaciones y días de hospitalización. Satisfacción por los servicios de salud.</t>
+  </si>
+  <si>
+    <t>Apoyo de programas (salud, educaión y nutrición).</t>
+  </si>
+  <si>
+    <t>Tipo de material de la vivienda, número de cuartos, número de servicios en la vivienda, número de focos y animales en la vivienda.</t>
+  </si>
+  <si>
+    <t>Bienes que son propiedad de cualquier miembro del hogar (lista).</t>
+  </si>
+  <si>
+    <t>Información que se proporciona cuando se afilian al seguro popular.</t>
+  </si>
+  <si>
+    <t>Responsable del hogar.</t>
+  </si>
+  <si>
+    <t>En los últimos 3 meses, por falta de dinero u otros recursos, alguna vez ¿Tuvieron problemas relacionados a la falta de comida?</t>
+  </si>
+  <si>
+    <t>Datos de Sangre</t>
+  </si>
+  <si>
+    <t>Resultados de hemoglobinas y de la muestra de sangre venosa así como la hora de toma de muestra y horas de ayuno. Sangre sin anticoagulante y sangre con anticoagulante. Si algun médico le ha dicho que tiene diabetes o alta el azúcar en la sangre.</t>
+  </si>
+  <si>
+    <t>Muestras de sangre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestras de Sangre </t>
+  </si>
+  <si>
+    <t>Todos los seleccionados</t>
+  </si>
+  <si>
+    <t>Antropometría</t>
+  </si>
+  <si>
+    <t>Personas seleccionadas menores de 50 años</t>
+  </si>
+  <si>
+    <t>Antropometría y presión arterial</t>
+  </si>
+  <si>
+    <t>Peso de la persona, circunferencia de cintura,circunferencia de la cadera, circunferencia de pantorrilla y talla. Para adultos de 50 años y más si han perdido peso recientemente, si tiene amputaciones, prueba de velocidad de la marcha. Para  mujeres de 12 a 49 años el estado fisiológico y tiempo de embarazo. Para personas seleccionadas de 10 años y mas la presión arterial, hora de toma de presión, la tensión arterial y la hora en que se realizó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrición y distribución de alimentos </t>
+  </si>
+  <si>
+    <t>Registro de los programas en los cuales participe por lo menos un integrante del hogar ya sea  despensa, medicinas, suplementos, ayudos monetarios y de que institución las reciben. Preguntas para los hogares que participen en programa de desarrollo humano Oportunidades apoyos monetarios, suplemento de alimentos,becas escolares, atención medica, etc. Vigilancia del estado de nutrición para niños entre 1 y 5 años y mujeres de 12 a 49 años de edad.</t>
+  </si>
+  <si>
+    <t>Responsable del hogar</t>
+  </si>
+  <si>
+    <t>Nutrición y distribución de alimentos</t>
+  </si>
+  <si>
+    <t>Cuestionario individual: Utilización de servicios de salud</t>
+  </si>
+  <si>
+    <t>Datos generales</t>
+  </si>
+  <si>
+    <t>Utilización de servicios ambulatorios</t>
+  </si>
+  <si>
+    <t>I.Utilización de servicios ambulatorios</t>
+  </si>
+  <si>
+    <t>Si en las últimas dos semanas solicitó o recibió consulta por enfermedad, control de la misma , lesión o accidente que no haya requerido hospitalización.</t>
+  </si>
+  <si>
+    <t>II.Necesidades de salud</t>
+  </si>
+  <si>
+    <t>En las últimas dos semanas cuál fue el principal motivo por el que buscó consulta y cuándo comenzó el episodio de enfermedad por la cual acudió a consulta.</t>
+  </si>
+  <si>
+    <t>III.Demanda satisfecha y no satisfecha</t>
+  </si>
+  <si>
+    <t>Si recibió atención  o por qué no la recibió.</t>
+  </si>
+  <si>
+    <t>IV. Prestador de servicios</t>
+  </si>
+  <si>
+    <t>En dónde se atendió, por qué se antendió ahí, que persona lo atendió así como la satisfacción con el servicio.</t>
+  </si>
+  <si>
+    <t>V.Accesibilidad y calidad</t>
+  </si>
+  <si>
+    <t>Si tuvo oportunidad de elegir el lugar donde se atendió, si su consulta fue programada, como fue el tiempo desde que solicitó la cita hasta que lo atendieron, cuánto pagó para llegar ahí, cuánto tiempo tardó en llegar, cuánto tuvo que esperar para ser atendido, cuánto le cobraron y cuánto duró la consulta y como considera el lugar donde lo atendieron.</t>
+  </si>
+  <si>
+    <t>VI. Medicamentos</t>
+  </si>
+  <si>
+    <t>Cuántos medicamentos le recetaron, si le explicaron y entendió todos, si consiguió todos los medicamentos, en donde y cuánto le cobraron o por qué no los consiguió.</t>
+  </si>
+  <si>
+    <t>VII.Uso de estudios de laboratorio y gabinete</t>
+  </si>
+  <si>
+    <t>Si le pidieron que se hiciera algún examen de laboratorio o gabinete y si se los hizo donde los realizó y cuanto pagó.  Si tuvo otros gastos por atenderse, en qué y cuánto gastó.</t>
+  </si>
+  <si>
+    <t>VIII. Satisfacción- calidad de la atención</t>
+  </si>
+  <si>
+    <t>Si después de la atención considera que su salud mejoró, si regresaría y por qué si o no.  Si le dijeron cuál era su enfermedad claramente y que tal fue la persona que dio la consulta. Como considera que se encuentra el lugar donde fue atendido.</t>
+  </si>
+  <si>
+    <t>Necesidades de salud</t>
+  </si>
+  <si>
+    <t>Demanda satisfecha y no satisfecha</t>
+  </si>
+  <si>
+    <t>Prestador de servicios</t>
+  </si>
+  <si>
+    <t>Accesibilidad y calidad</t>
+  </si>
+  <si>
+    <t>Medicamentos</t>
+  </si>
+  <si>
+    <t>Uso de estudios de laboratorio y gabinete</t>
+  </si>
+  <si>
+    <t>Satisfacción-calidad de la atención</t>
+  </si>
+  <si>
+    <t>Utilizador de servicios de salud seleccionado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +577,23 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,19 +621,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -443,67 +975,956 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F3"/>
+  <dimension ref="B1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="50.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" customWidth="1"/>
+    <col min="6" max="6" width="73.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" t="s">
+    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="2:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="30">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="2:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B49" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="2:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="B61" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="30.625" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="71.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>